--- a/data/US_EC1B1_Dataset.xlsx
+++ b/data/US_EC1B1_Dataset.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="10365" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="International Financial Statis" sheetId="1" r:id="Rb403233829284eff"/>
-    <x:sheet name="Tooltip" sheetId="2" r:id="R1500605d2ec34688"/>
+    <x:sheet name="International Financial Statis" sheetId="1" r:id="Rd6b2239653e9453b"/>
+    <x:sheet name="Tooltip" sheetId="2" r:id="R72c11ab3894f4f09"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -134,7 +134,7 @@
       <x:c s="0"/>
       <x:c s="0"/>
     </x:row>
-    <x:row ht="16.5" customHeight="1">
+    <x:row ht="17.25" customHeight="1">
       <x:c s="0"/>
       <x:c s="0"/>
       <x:c s="5" t="str">
@@ -5198,9 +5198,177 @@
         <x:v>57.8293140966405</x:v>
       </x:c>
     </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Jan 1990</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>75506.361462393</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>58.4254925924822</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Feb 1990</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>74173.5248679896</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>58.7006518982553</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Mar 1990</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>76303.0285402087</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>59.0216710883238</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Apr 1990</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>76283.2106099483</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>59.1133908569149</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>May 1990</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>77028.3668376652</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>59.2509705098014</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Jun 1990</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>77298.8432535479</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>59.57198969987</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Jul 1990</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>77906.2866468195</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>59.8012891213475</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Aug 1990</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>78908.8383573794</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>60.3516077328937</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Sep 1990</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>80024.1661328505</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>60.8560664601443</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Oct 1990</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>82852.1965317919</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>61.2229455345084</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="16.5" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Nov 1990</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>83059.4027736163</x:v>
+      </x:c>
+      <x:c s="9">
+        <x:v>61.3605251873949</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="17.25" customHeight="1">
+      <x:c s="6" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Dec 1990</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>83316.2146078445</x:v>
+      </x:c>
+      <x:c s="8">
+        <x:v>61.3605251873949</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A3:A363"/>
+    <x:mergeCell ref="A3:A375"/>
     <x:mergeCell ref="A1:H1"/>
   </x:mergeCells>
   <x:pageMargins left="1.18" right="0.79" top="0.79" bottom="0.79" header="0" footer="0"/>
@@ -11004,6 +11172,198 @@
 Time: Dec 1989</x:v>
       </x:c>
     </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Jan 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Jan 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Jan 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Feb 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Feb 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Feb 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Mar 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Mar 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Mar 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Apr 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Apr 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Apr 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>May 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: May 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: May 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Jun 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Jun 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Jun 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Jul 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Jul 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Jul 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Aug 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Aug 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Aug 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Sep 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Sep 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Sep 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Oct 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Oct 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Oct 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Nov 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Nov 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Nov 1990</x:v>
+      </x:c>
+    </x:row>
+    <x:row customHeight="0">
+      <x:c s="0" t="str">
+        <x:v>United States</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Dec 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Dec 1990</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Country: United States
+Time: Dec 1990</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:A1"/>
